--- a/src/data/xlsx/moskit_users.xlsx
+++ b/src/data/xlsx/moskit_users.xlsx
@@ -35,15 +35,21 @@
       <style:table-column-properties fo:break-before="auto" style:column-width="19.114cm"/>
     </style:style>
     <style:style style:name="ro1" style:family="table-row">
-      <style:table-row-properties style:row-height="0.503cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+      <style:table-row-properties style:row-height="0.487cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro2" style:family="table-row">
       <style:table-row-properties style:row-height="0.579cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
+    <style:style style:name="ro3" style:family="table-row">
+      <style:table-row-properties style:row-height="0.452cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="PageStyle_5f_sheet1">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
-    <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N137">
+    <number:number-style style:name="N3">
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N3">
       <style:table-cell-properties style:rotation-align="none"/>
     </style:style>
     <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Hyperlink" style:data-style-name="N0">
@@ -53,7 +59,7 @@
         <loext:char-complex-color loext:theme-type="hyperlink" loext:color-type="theme"/>
       </style:text-properties>
     </style:style>
-    <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N124">
+    <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N126">
       <style:table-cell-properties style:rotation-align="none"/>
     </style:style>
   </office:automatic-styles>
@@ -145,7 +151,7 @@
             <text:p>85.354</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Lesco</text:p>
+            <text:p>User 1 </text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>
@@ -196,7 +202,7 @@
             <text:p>97.502</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Gabriela</text:p>
+            <text:p>User 2</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>
@@ -258,7 +264,7 @@
             <text:p>99.015</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Leticia</text:p>
+            <text:p>User 3</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>
@@ -314,7 +320,7 @@
             <text:p>99.466</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Guilherme</text:p>
+            <text:p>User 4</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>
@@ -370,7 +376,7 @@
             <text:p>104.880</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Samuel</text:p>
+            <text:p>User 5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>
@@ -426,7 +432,7 @@
             <text:p>118.733</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Marcos</text:p>
+            <text:p>User 5</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>
@@ -486,10 +492,10 @@
   <office:meta>
     <meta:initial-creator>User</meta:initial-creator>
     <meta:creation-date>2006-10-02T04:59:59</meta:creation-date>
-    <dc:date>2024-12-27T14:56:53.352302340</dc:date>
+    <dc:date>2025-01-02T10:34:04.298404790</dc:date>
     <meta:generator>LibreOffice/24.2.7.2$Linux_X86_64 LibreOffice_project/420$Build-2</meta:generator>
-    <meta:editing-duration>PT3M2S</meta:editing-duration>
-    <meta:editing-cycles>1</meta:editing-cycles>
+    <meta:editing-duration>PT3M57S</meta:editing-duration>
+    <meta:editing-cycles>3</meta:editing-cycles>
     <meta:document-statistic meta:table-count="1" meta:cell-count="140" meta:object-count="0"/>
     <meta:user-defined meta:name="AppVersion">16.0300</meta:user-defined>
   </office:meta>
@@ -503,7 +509,7 @@
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaWidth" config:type="int">62043</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">3974</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">3958</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
@@ -577,9 +583,9 @@
       <config:config-item config:name="IsSnapToRaster" config:type="boolean">false</config:config-item>
       <config:config-item config:name="LinkUpdateMode" config:type="short">3</config:config-item>
       <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterName" config:type="string"/>
+      <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary"/>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">tAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAoAAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsJzAsMApjb2xvcmRlcHRoPTI0CmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4dERhdGEKUGFnZVNpemU6QTQAABIAQ09NUEFUX0RVUExFWF9NT0RFDwBEdXBsZXhNb2RlOjpPZmYMAFBSSU5URVJfTkFNRQ8AR2VuZXJpYyBQcmludGVyCwBEUklWRVJfTkFNRQcAU0dFTlBSVA==</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1000</config:config-item>
       <config:config-item config:name="RasterResolutionY" config:type="int">1000</config:config-item>
@@ -594,6 +600,11 @@
       <config:config-item config:name="ShowZeroValues" config:type="boolean">true</config:config-item>
       <config:config-item config:name="SyntaxStringRef" config:type="short">2</config:config-item>
       <config:config-item config:name="UpdateFromTemplate" config:type="boolean">true</config:config-item>
+      <config:config-item-map-named config:name="ScriptConfiguration">
+        <config:config-item-map-entry config:name="sheet1">
+          <config:config-item config:name="CodeName" config:type="string">Planilha1</config:config-item>
+        </config:config-item-map-entry>
+      </config:config-item-map-named>
     </config:config-item-set>
   </office:settings>
 </office:document-settings>
@@ -614,7 +625,7 @@
     </style:default-style>
     <style:default-style style:family="graphic">
       <style:graphic-properties svg:stroke-color="#3465a4" draw:fill-color="#729fcf" fo:wrap-option="no-wrap" draw:shadow-offset-x="0.3cm" draw:shadow-offset-y="0.3cm" style:writing-mode="page"/>
-      <style:paragraph-properties style:text-autospace="ideograph-alpha" style:punctuation-wrap="simple" style:line-break="strict" style:writing-mode="page" style:font-independent-line-spacing="false">
+      <style:paragraph-properties style:text-autospace="ideograph-alpha" style:punctuation-wrap="simple" style:line-break="strict" loext:tab-stop-distance="0cm" style:writing-mode="page" style:font-independent-line-spacing="false">
         <style:tab-stops/>
       </style:paragraph-properties>
       <style:text-properties style:use-window-font-color="true" loext:opacity="0%" fo:font-family="'Liberation Serif'" style:font-family-generic="roman" style:font-pitch="variable" fo:font-size="12pt" fo:language="pt" fo:country="BR" style:letter-kerning="true" style:font-family-asian="'DejaVu Sans'" style:font-family-generic-asian="system" style:font-pitch-asian="variable" style:font-size-asian="12pt" style:language-asian="zh" style:country-asian="CN" style:font-family-complex="'Noto Sans'" style:font-family-generic-complex="system" style:font-pitch-complex="variable" style:font-size-complex="12pt" style:language-complex="hi" style:country-complex="IN"/>
@@ -627,84 +638,84 @@
     <number:number-style style:name="N0">
       <number:number number:min-integer-digits="1"/>
     </number:number-style>
-    <number:number-style style:name="N114P0" style:volatile="true">
-      <number:text>R$ </number:text>
-      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text loext:blank-width-char=")"> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N114">
-      <number:text>(R$ </number:text>
-      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N114P0"/>
-    </number:number-style>
     <number:number-style style:name="N115P0" style:volatile="true">
       <number:text>R$ </number:text>
       <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text loext:blank-width-char=")"> </number:text>
     </number:number-style>
     <number:number-style style:name="N115">
+      <number:text>(R$ </number:text>
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text>)</number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N115P0"/>
+    </number:number-style>
+    <number:number-style style:name="N116P0" style:volatile="true">
+      <number:text>R$ </number:text>
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text loext:blank-width-char=")"> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N116">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>(R$ </number:text>
       <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N115P0"/>
-    </number:number-style>
-    <number:number-style style:name="N116P0" style:volatile="true">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N116P0"/>
+    </number:number-style>
+    <number:number-style style:name="N118P0" style:volatile="true">
       <number:text>R$ </number:text>
       <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text loext:blank-width-char=")"> </number:text>
     </number:number-style>
-    <number:number-style style:name="N116">
+    <number:number-style style:name="N118">
       <number:text>(R$ </number:text>
       <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N116P0"/>
-    </number:number-style>
-    <number:number-style style:name="N117P0" style:volatile="true">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N118P0"/>
+    </number:number-style>
+    <number:number-style style:name="N119P0" style:volatile="true">
       <number:text>R$ </number:text>
       <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text loext:blank-width-char=")"> </number:text>
     </number:number-style>
-    <number:number-style style:name="N117">
+    <number:number-style style:name="N119">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>(R$ </number:text>
       <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N117P0"/>
-    </number:number-style>
-    <number:date-style style:name="N118">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N119P0"/>
+    </number:number-style>
+    <number:date-style style:name="N120">
       <number:day/>
       <number:text>/</number:text>
       <number:month/>
       <number:text>/</number:text>
       <number:year number:style="long"/>
     </number:date-style>
-    <number:date-style style:name="N119">
+    <number:date-style style:name="N121">
       <number:day/>
       <number:text>/</number:text>
       <number:month number:textual="true"/>
       <number:text>/</number:text>
       <number:year/>
     </number:date-style>
-    <number:date-style style:name="N120">
+    <number:date-style style:name="N122">
       <number:day/>
       <number:text>/</number:text>
       <number:month number:textual="true"/>
     </number:date-style>
-    <number:date-style style:name="N121">
+    <number:date-style style:name="N123">
       <number:month number:textual="true"/>
       <number:text>/</number:text>
       <number:year/>
     </number:date-style>
-    <number:time-style style:name="N122">
+    <number:time-style style:name="N124">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text> </number:text>
       <number:am-pm/>
     </number:time-style>
-    <number:time-style style:name="N123">
+    <number:time-style style:name="N125">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
@@ -713,7 +724,7 @@
       <number:text> </number:text>
       <number:am-pm/>
     </number:time-style>
-    <number:date-style style:name="N124">
+    <number:date-style style:name="N126">
       <number:day/>
       <number:text>/</number:text>
       <number:month/>
@@ -724,178 +735,175 @@
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
     </number:date-style>
-    <number:number-style style:name="N125P0" style:volatile="true">
-      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text loext:blank-width-char=")"> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N125">
+    <number:number-style style:name="N128P0" style:volatile="true">
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text loext:blank-width-char=")"> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N128">
       <number:text>(</number:text>
       <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N125P0"/>
-    </number:number-style>
-    <number:number-style style:name="N126P0" style:volatile="true">
-      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text loext:blank-width-char=")"> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N126">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N128P0"/>
+    </number:number-style>
+    <number:number-style style:name="N129P0" style:volatile="true">
+      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <number:text loext:blank-width-char=")"> </number:text>
+    </number:number-style>
+    <number:number-style style:name="N129">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
       <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N126P0"/>
-    </number:number-style>
-    <number:number-style style:name="N127P0" style:volatile="true">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N129P0"/>
+    </number:number-style>
+    <number:number-style style:name="N131P0" style:volatile="true">
       <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text loext:blank-width-char=")"> </number:text>
     </number:number-style>
-    <number:number-style style:name="N127">
+    <number:number-style style:name="N131">
       <number:text>(</number:text>
       <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N127P0"/>
-    </number:number-style>
-    <number:number-style style:name="N128P0" style:volatile="true">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N131P0"/>
+    </number:number-style>
+    <number:number-style style:name="N132P0" style:volatile="true">
       <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text loext:blank-width-char=")"> </number:text>
     </number:number-style>
-    <number:number-style style:name="N128">
+    <number:number-style style:name="N132">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>(</number:text>
       <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N128P0"/>
-    </number:number-style>
-    <number:number-style style:name="N129P0" style:volatile="true">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N132P0"/>
+    </number:number-style>
+    <number:number-style style:name="N136P0" style:volatile="true">
       <number:text loext:blank-width-char="("> </number:text>
       <number:fill-character> </number:fill-character>
       <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text loext:blank-width-char=")"> </number:text>
     </number:number-style>
-    <number:number-style style:name="N129P1" style:volatile="true">
+    <number:number-style style:name="N136P1" style:volatile="true">
       <number:text loext:blank-width-char="("> </number:text>
       <number:fill-character> </number:fill-character>
       <number:text>(</number:text>
       <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
     </number:number-style>
-    <number:number-style style:name="N129P2" style:volatile="true">
+    <number:number-style style:name="N136P2" style:volatile="true">
       <number:text loext:blank-width-char="("> </number:text>
       <number:fill-character> </number:fill-character>
-      <number:text loext:blank-width-char=")1">- </number:text>
-    </number:number-style>
-    <number:text-style style:name="N129">
+      <number:text>- _)</number:text>
+    </number:number-style>
+    <number:text-style style:name="N136">
       <number:text loext:blank-width-char="("> </number:text>
       <number:text-content/>
       <number:text loext:blank-width-char=")"> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N129P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N129P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N129P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N136P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N136P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N136P2"/>
     </number:text-style>
-    <number:number-style style:name="N130P0" style:volatile="true">
+    <number:number-style style:name="N140P0" style:volatile="true">
       <number:text loext:blank-width-char="("> R$ </number:text>
       <number:fill-character> </number:fill-character>
       <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text loext:blank-width-char=")"> </number:text>
     </number:number-style>
-    <number:number-style style:name="N130P1" style:volatile="true">
+    <number:number-style style:name="N140P1" style:volatile="true">
       <number:text loext:blank-width-char="("> R$ </number:text>
       <number:fill-character> </number:fill-character>
       <number:text>(</number:text>
       <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
     </number:number-style>
-    <number:number-style style:name="N130P2" style:volatile="true">
+    <number:number-style style:name="N140P2" style:volatile="true">
       <number:text loext:blank-width-char="("> R$ </number:text>
       <number:fill-character> </number:fill-character>
-      <number:text loext:blank-width-char=")1">- </number:text>
-    </number:number-style>
-    <number:text-style style:name="N130">
+      <number:text>- _)</number:text>
+    </number:number-style>
+    <number:text-style style:name="N140">
       <number:text loext:blank-width-char="("> </number:text>
       <number:text-content/>
       <number:text loext:blank-width-char=")"> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N130P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N130P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N130P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N140P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N140P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N140P2"/>
     </number:text-style>
-    <number:number-style style:name="N131P0" style:volatile="true">
+    <number:number-style style:name="N144P0" style:volatile="true">
       <number:text loext:blank-width-char="("> </number:text>
       <number:fill-character> </number:fill-character>
       <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text loext:blank-width-char=")"> </number:text>
     </number:number-style>
-    <number:number-style style:name="N131P1" style:volatile="true">
+    <number:number-style style:name="N144P1" style:volatile="true">
       <number:text loext:blank-width-char="("> </number:text>
       <number:fill-character> </number:fill-character>
       <number:text>(</number:text>
       <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
     </number:number-style>
-    <number:number-style style:name="N131P2" style:volatile="true">
+    <number:number-style style:name="N144P2" style:volatile="true">
       <number:text loext:blank-width-char="("> </number:text>
       <number:fill-character> </number:fill-character>
       <number:text>-</number:text>
       <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="2" loext:max-blank-integer-digits="2"/>
       <number:text loext:blank-width-char=")"> </number:text>
     </number:number-style>
-    <number:text-style style:name="N131">
+    <number:text-style style:name="N144">
       <number:text loext:blank-width-char="("> </number:text>
       <number:text-content/>
       <number:text loext:blank-width-char=")"> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N131P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N131P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N131P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N144P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N144P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N144P2"/>
     </number:text-style>
-    <number:number-style style:name="N132P0" style:volatile="true">
+    <number:number-style style:name="N148P0" style:volatile="true">
       <number:text loext:blank-width-char="("> R$ </number:text>
       <number:fill-character> </number:fill-character>
       <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text loext:blank-width-char=")"> </number:text>
     </number:number-style>
-    <number:number-style style:name="N132P1" style:volatile="true">
+    <number:number-style style:name="N148P1" style:volatile="true">
       <number:text loext:blank-width-char="("> R$ </number:text>
       <number:fill-character> </number:fill-character>
       <number:text>(</number:text>
       <number:number number:decimal-places="2" number:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
     </number:number-style>
-    <number:number-style style:name="N132P2" style:volatile="true">
+    <number:number-style style:name="N148P2" style:volatile="true">
       <number:text loext:blank-width-char="("> R$ </number:text>
       <number:fill-character> </number:fill-character>
       <number:text>-</number:text>
       <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="2" loext:max-blank-integer-digits="2"/>
       <number:text loext:blank-width-char=")"> </number:text>
     </number:number-style>
-    <number:text-style style:name="N132">
+    <number:text-style style:name="N148">
       <number:text loext:blank-width-char="("> </number:text>
       <number:text-content/>
       <number:text loext:blank-width-char=")"> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N132P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N132P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N132P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N148P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N148P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N148P2"/>
     </number:text-style>
-    <number:time-style style:name="N133">
+    <number:time-style style:name="N149">
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N134" number:truncate-on-overflow="false">
+    <number:time-style style:name="N150" number:truncate-on-overflow="false">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N135">
+    <number:time-style style:name="N151">
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long" number:decimal-places="1"/>
     </number:time-style>
-    <number:number-style style:name="N136">
+    <number:number-style style:name="N152">
       <number:scientific-number number:decimal-places="1" number:min-decimal-places="1" number:min-integer-digits="1" number:min-exponent-digits="1" number:exponent-interval="3" number:forced-exponent-sign="true"/>
-    </number:number-style>
-    <number:number-style style:name="N137">
-      <number:number number:decimal-places="0" number:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
     </number:number-style>
     <style:style style:name="Default" style:family="table-cell">
       <style:table-cell-properties style:rotation-align="none" style:vertical-align="bottom"/>
@@ -905,7 +913,9 @@
     </style:style>
     <style:style style:name="Heading" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:wrap-option="no-wrap" style:shrink-to-fit="false"/>
-      <style:text-properties fo:color="#000000" fo:font-size="24pt" fo:font-style="normal" fo:font-weight="bold" style:font-size-asian="24pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="24pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+      <style:text-properties fo:color="#000000" fo:font-size="24pt" fo:font-style="normal" fo:font-weight="bold" style:font-size-asian="24pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="24pt" style:font-style-complex="normal" style:font-weight-complex="bold">
+        <loext:char-complex-color loext:theme-type="dark1" loext:color-type="theme"/>
+      </style:text-properties>
     </style:style>
     <style:style style:name="Heading_20_1" style:display-name="Heading 1" style:family="table-cell" style:parent-style-name="Heading">
       <style:table-cell-properties fo:wrap-option="no-wrap" style:shrink-to-fit="false"/>
@@ -920,38 +930,54 @@
     </style:style>
     <style:style style:name="Note" style:family="table-cell" style:parent-style-name="Text">
       <style:table-cell-properties fo:background-color="#ffffcc" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" fo:wrap-option="no-wrap" fo:border="0.74pt solid #808080" style:shrink-to-fit="false"/>
-      <style:text-properties fo:color="#333333"/>
+      <style:text-properties fo:color="#333333">
+        <loext:char-complex-color loext:theme-type="dark1" loext:color-type="theme"/>
+      </style:text-properties>
     </style:style>
     <style:style style:name="Footnote" style:family="table-cell" style:parent-style-name="Text">
       <style:table-cell-properties fo:wrap-option="no-wrap" style:shrink-to-fit="false"/>
-      <style:text-properties fo:color="#808080" fo:font-style="italic" style:font-style-asian="italic" style:font-style-complex="italic"/>
+      <style:text-properties fo:color="#808080" fo:font-style="italic" style:font-style-asian="italic" style:font-style-complex="italic">
+        <loext:char-complex-color loext:theme-type="dark1" loext:color-type="theme"/>
+      </style:text-properties>
     </style:style>
     <style:style style:name="Hyperlink" style:family="table-cell" style:parent-style-name="Text">
       <style:table-cell-properties fo:wrap-option="no-wrap" style:shrink-to-fit="false"/>
-      <style:text-properties fo:color="#0000ee" style:text-underline-style="solid" style:text-underline-width="auto" style:text-underline-color="#0000ee"/>
+      <style:text-properties fo:color="#0000ee" style:text-underline-style="solid" style:text-underline-width="auto" style:text-underline-color="#0000ee">
+        <loext:char-complex-color loext:theme-type="dark1" loext:color-type="theme"/>
+      </style:text-properties>
     </style:style>
     <style:style style:name="Status" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:wrap-option="no-wrap" style:shrink-to-fit="false"/>
     </style:style>
     <style:style style:name="Good" style:family="table-cell" style:parent-style-name="Status">
       <style:table-cell-properties fo:background-color="#ccffcc" fo:wrap-option="no-wrap" style:shrink-to-fit="false"/>
-      <style:text-properties fo:color="#006600"/>
+      <style:text-properties fo:color="#006600">
+        <loext:char-complex-color loext:theme-type="dark1" loext:color-type="theme"/>
+      </style:text-properties>
     </style:style>
     <style:style style:name="Neutral" style:family="table-cell" style:parent-style-name="Status">
       <style:table-cell-properties fo:background-color="#ffffcc" fo:wrap-option="no-wrap" style:shrink-to-fit="false"/>
-      <style:text-properties fo:color="#996600"/>
+      <style:text-properties fo:color="#996600">
+        <loext:char-complex-color loext:theme-type="dark1" loext:color-type="theme"/>
+      </style:text-properties>
     </style:style>
     <style:style style:name="Bad" style:family="table-cell" style:parent-style-name="Status">
       <style:table-cell-properties fo:background-color="#ffcccc" fo:wrap-option="no-wrap" style:shrink-to-fit="false"/>
-      <style:text-properties fo:color="#cc0000"/>
+      <style:text-properties fo:color="#cc0000">
+        <loext:char-complex-color loext:theme-type="dark1" loext:color-type="theme"/>
+      </style:text-properties>
     </style:style>
     <style:style style:name="Warning" style:family="table-cell" style:parent-style-name="Status">
       <style:table-cell-properties fo:wrap-option="no-wrap" style:shrink-to-fit="false"/>
-      <style:text-properties fo:color="#cc0000"/>
+      <style:text-properties fo:color="#cc0000">
+        <loext:char-complex-color loext:theme-type="dark1" loext:color-type="theme"/>
+      </style:text-properties>
     </style:style>
     <style:style style:name="Error" style:family="table-cell" style:parent-style-name="Status">
       <style:table-cell-properties fo:background-color="#cc0000" fo:wrap-option="no-wrap" style:shrink-to-fit="false"/>
-      <style:text-properties fo:color="#ffffff" fo:font-weight="bold" style:font-weight-asian="bold" style:font-weight-complex="bold"/>
+      <style:text-properties fo:color="#ffffff" fo:font-weight="bold" style:font-weight-asian="bold" style:font-weight-complex="bold">
+        <loext:char-complex-color loext:theme-type="dark1" loext:color-type="theme"/>
+      </style:text-properties>
     </style:style>
     <style:style style:name="Accent" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:wrap-option="no-wrap" style:shrink-to-fit="false"/>
@@ -959,11 +985,15 @@
     </style:style>
     <style:style style:name="Accent_20_1" style:display-name="Accent 1" style:family="table-cell" style:parent-style-name="Accent">
       <style:table-cell-properties fo:background-color="#000000" fo:wrap-option="no-wrap" style:shrink-to-fit="false"/>
-      <style:text-properties fo:color="#ffffff"/>
+      <style:text-properties fo:color="#ffffff">
+        <loext:char-complex-color loext:theme-type="dark1" loext:color-type="theme"/>
+      </style:text-properties>
     </style:style>
     <style:style style:name="Accent_20_2" style:display-name="Accent 2" style:family="table-cell" style:parent-style-name="Accent">
       <style:table-cell-properties fo:background-color="#808080" fo:wrap-option="no-wrap" style:shrink-to-fit="false"/>
-      <style:text-properties fo:color="#ffffff"/>
+      <style:text-properties fo:color="#ffffff">
+        <loext:char-complex-color loext:theme-type="dark1" loext:color-type="theme"/>
+      </style:text-properties>
     </style:style>
     <style:style style:name="Accent_20_3" style:display-name="Accent 3" style:family="table-cell" style:parent-style-name="Accent">
       <style:table-cell-properties fo:background-color="#dddddd" fo:wrap-option="no-wrap" style:shrink-to-fit="false"/>
@@ -1062,9 +1092,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2024-12-27">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2025-01-02">00/00/0000</text:date>
             , 
-            <text:time>00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="10:33:08.395204069">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
